--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_15.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>204103.5683980512</v>
+        <v>197092.8392820562</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516697</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791246</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>82.04967292666571</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,22 +704,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>222.6675063593277</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -744,10 +744,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>121.9851530978146</v>
+        <v>73.56694811696424</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
         <v>118.8592197488542</v>
@@ -756,7 +756,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -795,7 +795,7 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>227.816073408046</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>98.40260261156266</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>127.1532014370899</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>45.25070076841319</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>139.7157919888355</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -978,7 +978,7 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D6" t="n">
-        <v>128.7880777047345</v>
+        <v>91.63208346428505</v>
       </c>
       <c r="E6" t="n">
         <v>135.0820259802211</v>
@@ -990,7 +990,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>48.89338144820752</v>
@@ -1023,13 +1023,13 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>46.46264217274744</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>30.01404525308099</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>100.9121619352397</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>75.46527259635199</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>181.6295003244862</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>23.6553368547231</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>26.18907025782716</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,13 +1348,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>88.34088543059755</v>
       </c>
       <c r="D11" t="n">
         <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F11" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
-        <v>142.9460253914743</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177846</v>
+        <v>3.791066746862896</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>84.62979983006863</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>28.8521829798247</v>
+        <v>231.5604464797117</v>
       </c>
       <c r="D14" t="n">
         <v>310.508405100767</v>
@@ -1619,13 +1619,13 @@
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>321.4474895938729</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.51101189041217</v>
+        <v>53.47226596772394</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
         <v>162.2835489187163</v>
@@ -1825,7 +1825,7 @@
         <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>160.6612066001148</v>
@@ -1856,7 +1856,7 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.671158641292</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954281</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.694670656806</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291034</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838898</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828911</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696765</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.189344688534</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431743</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459984</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643956</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931867</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908594</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147808</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805012</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922205</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367797</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920528</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404472</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480633</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714522</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799145</v>
+        <v>251.226748179914</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E46" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357237</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G46" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253654</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1317.373745460747</v>
+        <v>1733.055528520442</v>
       </c>
       <c r="C2" t="n">
-        <v>1317.373745460747</v>
+        <v>1339.880027023372</v>
       </c>
       <c r="D2" t="n">
-        <v>931.9326166774147</v>
+        <v>954.4388982400401</v>
       </c>
       <c r="E2" t="n">
-        <v>931.9326166774147</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>919.0785822477965</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>505.9158267357996</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022902</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475502</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L2" t="n">
-        <v>402.4780154222169</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="M2" t="n">
-        <v>940.7368004323102</v>
+        <v>1058.738054302317</v>
       </c>
       <c r="N2" t="n">
-        <v>1386.555876713901</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="O2" t="n">
-        <v>1826.595477606229</v>
+        <v>1572.340732912005</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737751</v>
+        <v>1920.528225043527</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023273</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582689</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U2" t="n">
-        <v>1688.372780492459</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="V2" t="n">
-        <v>1688.372780492459</v>
+        <v>1733.055528520442</v>
       </c>
       <c r="W2" t="n">
-        <v>1317.373745460747</v>
+        <v>1733.055528520442</v>
       </c>
       <c r="X2" t="n">
-        <v>1317.373745460747</v>
+        <v>1733.055528520442</v>
       </c>
       <c r="Y2" t="n">
-        <v>1317.373745460747</v>
+        <v>1733.055528520442</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021461</v>
+        <v>778.7327876102513</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622383</v>
+        <v>628.0785571703435</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837186</v>
+        <v>497.9895897918238</v>
       </c>
       <c r="E3" t="n">
-        <v>251.8528937222897</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>251.8528937222897</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>131.7930757941541</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475502</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930683</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.320530303162</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313255</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O3" t="n">
-        <v>2120.099597904236</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="P3" t="n">
-        <v>2120.099597904236</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734593</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784302</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1299.150416625694</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692676001</v>
+        <v>1109.843338975705</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431074</v>
+        <v>930.5291220512127</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.87392956865307</v>
+        <v>453.8588629353585</v>
       </c>
       <c r="C4" t="n">
-        <v>73.87392956865307</v>
+        <v>354.4622946408508</v>
       </c>
       <c r="D4" t="n">
-        <v>73.87392956865307</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="E4" t="n">
-        <v>73.87392956865307</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="G4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="H4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>816.5051047271256</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>531.0663129690266</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>531.0663129690266</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="W4" t="n">
-        <v>531.0663129690266</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="X4" t="n">
-        <v>296.9859907520097</v>
+        <v>676.9709241187152</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.87392956865307</v>
+        <v>453.8588629353585</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.025067740975</v>
+        <v>929.940204038998</v>
       </c>
       <c r="C5" t="n">
-        <v>607.8495662439052</v>
+        <v>929.940204038998</v>
       </c>
       <c r="D5" t="n">
-        <v>607.8495662439052</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E5" t="n">
-        <v>607.8495662439052</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022902</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022902</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="M5" t="n">
-        <v>1040.448080049574</v>
+        <v>588.4870060424361</v>
       </c>
       <c r="N5" t="n">
-        <v>1568.259363687036</v>
+        <v>1102.089684652125</v>
       </c>
       <c r="O5" t="n">
-        <v>2008.298964579364</v>
+        <v>1542.129285544453</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>2037.169424102445</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737751</v>
+        <v>1813.668821661862</v>
       </c>
       <c r="U5" t="n">
-        <v>2129.075191183798</v>
+        <v>1813.668821661862</v>
       </c>
       <c r="V5" t="n">
-        <v>1786.968381887317</v>
+        <v>1471.56201236538</v>
       </c>
       <c r="W5" t="n">
-        <v>1786.968381887317</v>
+        <v>1471.56201236538</v>
       </c>
       <c r="X5" t="n">
-        <v>1397.515776820374</v>
+        <v>1330.434949750395</v>
       </c>
       <c r="Y5" t="n">
-        <v>1001.025067740975</v>
+        <v>1330.434949750395</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>715.0405061833851</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>564.3862757434773</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>471.8286156785429</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284344</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>118.2679669754071</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144824</v>
+        <v>438.0071130376336</v>
       </c>
       <c r="L6" t="n">
-        <v>347.3800255716928</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="M6" t="n">
-        <v>885.6388105817862</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="N6" t="n">
-        <v>1423.89759559188</v>
+        <v>921.5731989359468</v>
       </c>
       <c r="O6" t="n">
-        <v>1940.41787818286</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.41787818286</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S6" t="n">
-        <v>2039.85229263762</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T6" t="n">
-        <v>1862.868480836528</v>
+        <v>1898.178526015832</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1688.115382694474</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1465.575381065541</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1235.458135198827</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1046.151057548839</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>866.8368406243465</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>242.066930722664</v>
+        <v>655.8107739043273</v>
       </c>
       <c r="C7" t="n">
-        <v>242.066930722664</v>
+        <v>655.8107739043273</v>
       </c>
       <c r="D7" t="n">
-        <v>242.066930722664</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="E7" t="n">
-        <v>242.066930722664</v>
+        <v>500.1776608068421</v>
       </c>
       <c r="F7" t="n">
-        <v>242.066930722664</v>
+        <v>342.851726019815</v>
       </c>
       <c r="G7" t="n">
-        <v>73.81287682210956</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475502</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633847</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>841.0187925956286</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>841.0187925956286</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>841.0187925956286</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>841.0187925956286</v>
       </c>
       <c r="V7" t="n">
-        <v>476.1472529396809</v>
+        <v>841.0187925956286</v>
       </c>
       <c r="W7" t="n">
-        <v>476.1472529396809</v>
+        <v>841.0187925956286</v>
       </c>
       <c r="X7" t="n">
-        <v>242.066930722664</v>
+        <v>841.0187925956286</v>
       </c>
       <c r="Y7" t="n">
-        <v>242.066930722664</v>
+        <v>841.0187925956286</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1652.542660748986</v>
+        <v>1189.131432816789</v>
       </c>
       <c r="C8" t="n">
-        <v>1652.542660748986</v>
+        <v>795.9559313197194</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.101531965654</v>
+        <v>795.9559313197194</v>
       </c>
       <c r="E8" t="n">
-        <v>864.5180070821984</v>
+        <v>393.3724064362639</v>
       </c>
       <c r="F8" t="n">
-        <v>447.6235686121762</v>
+        <v>380.5183720066457</v>
       </c>
       <c r="G8" t="n">
         <v>371.396020535053</v>
@@ -4811,43 +4811,43 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="V8" t="n">
-        <v>2023.541695780699</v>
+        <v>1762.048179625637</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.542660748986</v>
+        <v>1578.584037883732</v>
       </c>
       <c r="X8" t="n">
-        <v>1652.542660748986</v>
+        <v>1189.131432816789</v>
       </c>
       <c r="Y8" t="n">
-        <v>1652.542660748986</v>
+        <v>1189.131432816789</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>156.9821715485457</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>476.7213176107721</v>
       </c>
       <c r="L9" t="n">
-        <v>160.4279523212711</v>
+        <v>960.2874035090854</v>
       </c>
       <c r="M9" t="n">
-        <v>745.9259573278732</v>
+        <v>1545.785408515688</v>
       </c>
       <c r="N9" t="n">
-        <v>1331.423962334475</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>1847.944244925457</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>399.450245395098</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="C10" t="n">
-        <v>229.2451274610872</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="D10" t="n">
-        <v>202.7915211400496</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="E10" t="n">
-        <v>202.7915211400496</v>
+        <v>204.6389048885707</v>
       </c>
       <c r="F10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4987,25 +4987,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V10" t="n">
-        <v>682.7806474639203</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="W10" t="n">
-        <v>399.450245395098</v>
+        <v>462.613506756823</v>
       </c>
       <c r="X10" t="n">
-        <v>399.450245395098</v>
+        <v>228.5331845398061</v>
       </c>
       <c r="Y10" t="n">
-        <v>399.450245395098</v>
+        <v>228.5331845398061</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1711.843491816804</v>
+        <v>1459.710229057665</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442403</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H11" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654567</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2866.849180655168</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2682.892726235961</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2682.892726235961</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2682.892726235961</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2365.236396315212</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y11" t="n">
-        <v>2040.541962382007</v>
+        <v>1788.408699622868</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K12" t="n">
-        <v>494.9732559860694</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L12" t="n">
-        <v>494.9732559860694</v>
+        <v>862.5399502876207</v>
       </c>
       <c r="M12" t="n">
-        <v>1122.744905612751</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N12" t="n">
-        <v>1778.52287682331</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
-        <v>2295.043159414291</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2295.043159414291</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>413.5767439763694</v>
+        <v>428.2599224835755</v>
       </c>
       <c r="C13" t="n">
-        <v>315.1679011885523</v>
+        <v>329.8510796957585</v>
       </c>
       <c r="D13" t="n">
-        <v>231.3310632372609</v>
+        <v>326.0217193453919</v>
       </c>
       <c r="E13" t="n">
-        <v>231.3310632372609</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="F13" t="n">
-        <v>145.8014035964277</v>
+        <v>242.2591823507883</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>145.8014035964276</v>
       </c>
       <c r="H13" t="n">
         <v>62.11912770411553</v>
@@ -5197,7 +5197,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
@@ -5206,43 +5206,43 @@
         <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138161</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628194</v>
+        <v>741.8597555915615</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401909</v>
+        <v>741.8597555915615</v>
       </c>
       <c r="X13" t="n">
-        <v>499.061390269368</v>
+        <v>579.5757085207383</v>
       </c>
       <c r="Y13" t="n">
-        <v>413.5767439763694</v>
+        <v>428.2599224835755</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1740.987110988345</v>
+        <v>1604.376452339598</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1370.477011451001</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766007</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185754</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527723</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5309,19 +5309,19 @@
         <v>3011.239105293021</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V14" t="n">
-        <v>3011.239105293021</v>
+        <v>2556.972116723525</v>
       </c>
       <c r="W14" t="n">
-        <v>2712.036345407502</v>
+        <v>2257.769356838006</v>
       </c>
       <c r="X14" t="n">
-        <v>2394.380015486752</v>
+        <v>2257.769356838006</v>
       </c>
       <c r="Y14" t="n">
-        <v>2069.685581553547</v>
+        <v>1933.074922904801</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>689.8907773307967</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1345.668748541356</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O15" t="n">
-        <v>1862.189031132337</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P15" t="n">
-        <v>2267.810399848734</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>340.7482862408966</v>
+        <v>426.3522468384176</v>
       </c>
       <c r="C16" t="n">
-        <v>242.3394434530797</v>
+        <v>327.9434040506007</v>
       </c>
       <c r="D16" t="n">
-        <v>242.3394434530797</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="E16" t="n">
-        <v>158.5769064584761</v>
+        <v>244.1065660993094</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>158.5769064584762</v>
       </c>
       <c r="G16" t="n">
         <v>62.11912770411553</v>
@@ -5437,10 +5437,10 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1496.732641814508</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1332.809865128936</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1119.16734851703</v>
+        <v>988.1475398457732</v>
       </c>
       <c r="V16" t="n">
-        <v>924.9842784840486</v>
+        <v>793.9644698127912</v>
       </c>
       <c r="W16" t="n">
-        <v>713.4501515614201</v>
+        <v>793.9644698127912</v>
       </c>
       <c r="X16" t="n">
-        <v>551.166104490597</v>
+        <v>631.6804227419682</v>
       </c>
       <c r="Y16" t="n">
-        <v>399.8503184534343</v>
+        <v>480.3646367048054</v>
       </c>
     </row>
     <row r="17">
@@ -5498,52 +5498,52 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.7689006129455</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404073</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
         <v>2855.219708188068</v>
@@ -5552,10 +5552,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5586,28 +5586,28 @@
         <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L18" t="n">
-        <v>62.11912770411556</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M18" t="n">
-        <v>689.8907773307967</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N18" t="n">
-        <v>1345.668748541356</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O18" t="n">
-        <v>1862.189031132337</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885595</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
         <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
         <v>149.5651460634913</v>
@@ -5662,19 +5662,19 @@
         <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072676</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
         <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>243.2367958390485</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L19" t="n">
         <v>442.7178209184696</v>
@@ -5701,19 +5701,19 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918807</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161902</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194228</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330089</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984005</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
         <v>289.4632611974523</v>
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5774,10 +5774,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T20" t="n">
         <v>2979.295701071061</v>
@@ -5789,7 +5789,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L21" t="n">
-        <v>568.1699486069232</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>689.8907773307967</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5902,25 +5902,25 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O22" t="n">
         <v>967.2827903862335</v>
@@ -5978,10 +5978,10 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,7 +6014,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,10 +6023,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,19 +6066,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
         <v>1740.468202408463</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960415</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M25" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390267</v>
       </c>
       <c r="G26" t="n">
         <v>345.9036637142181</v>
@@ -6233,16 +6233,16 @@
         <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1895.47226483567</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755553</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>2986.344026377455</v>
       </c>
       <c r="P26" t="n">
-        <v>3397.613364956129</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.428440379499</v>
@@ -6257,16 +6257,16 @@
         <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6309,16 +6309,16 @@
         <v>73.36485894755025</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755025</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6467,22 +6467,22 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1342.204025341951</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1888.204925386532</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N29" t="n">
-        <v>2416.016209023994</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>2949.107171645896</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>556.9309448458635</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1184.702594472545</v>
+        <v>1095.935962441339</v>
       </c>
       <c r="N30" t="n">
-        <v>1840.480565683104</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O30" t="n">
-        <v>1840.480565683104</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2246.101934399501</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057097</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230773</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039956007</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230626</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468662</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513242</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2436.268520877774</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770103</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901625</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908499</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.18438039728</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131753</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946335</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004164</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="L33" t="n">
-        <v>182.6625304604891</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="M33" t="n">
-        <v>810.4341800871703</v>
+        <v>808.4417674487537</v>
       </c>
       <c r="N33" t="n">
-        <v>1466.212151297729</v>
+        <v>1464.219738659313</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.740021250294</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965135</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918672</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237464</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123134</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546508</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834608</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431931</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074063</v>
+        <v>342.9206752648151</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812061</v>
+        <v>612.8479737408638</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194701</v>
+        <v>799.1395520791278</v>
       </c>
       <c r="N34" t="n">
-        <v>971.0369771777493</v>
+        <v>1093.98130668532</v>
       </c>
       <c r="O34" t="n">
-        <v>1239.014836946528</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649524</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746645</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308586</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.2176684205</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518099</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689364</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395528</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000948</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124425</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584503</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
         <v>1352.560722599516</v>
@@ -6929,13 +6929,13 @@
         <v>261.185821680343</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K35" t="n">
         <v>565.7512566404055</v>
@@ -6980,7 +6980,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411555</v>
+        <v>170.4860853627812</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411555</v>
+        <v>490.2252314250076</v>
       </c>
       <c r="L36" t="n">
-        <v>174.7633905351325</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M36" t="n">
-        <v>802.5350401618138</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1458.313011372373</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407268</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462922</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411555</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O37" t="n">
-        <v>969.3241577214669</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7151,22 +7151,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7175,16 +7175,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,13 +7193,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
@@ -7208,16 +7208,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="39">
@@ -7254,16 +7254,16 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
         <v>1740.468202408463</v>
@@ -7324,34 +7324,34 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,7 +7436,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,13 +7488,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M42" t="n">
         <v>568.1699486069232</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229973</v>
       </c>
       <c r="K43" t="n">
-        <v>149.5338114222412</v>
+        <v>149.5338114222416</v>
       </c>
       <c r="L43" t="n">
-        <v>313.661451296041</v>
+        <v>313.6614512960414</v>
       </c>
       <c r="M43" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343054</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879427</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924219</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7658,22 +7658,22 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040976</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.29570107106</v>
@@ -7691,7 +7691,7 @@
         <v>2147.691468840155</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443164</v>
       </c>
     </row>
     <row r="45">
@@ -7710,10 +7710,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
         <v>199.803798091603</v>
@@ -7722,22 +7722,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.8582737663419</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>381.8582737663419</v>
+        <v>456.9185815712231</v>
       </c>
       <c r="M45" t="n">
-        <v>1009.629923393023</v>
+        <v>1084.690231197904</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072664</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462912</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960404</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343044</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
-        <v>683.1426636655136</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918803</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161897</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194224</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330085</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984001</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7976,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
@@ -7985,19 +7985,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321651</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N2" t="n">
-        <v>599.4407906121179</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O2" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>300.694771926873</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837496</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886044</v>
+        <v>458.3732307488522</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P3" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>146.2238822806768</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,22 +8219,22 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>197.0376953363579</v>
       </c>
       <c r="M5" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.909075792015</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>318.4671090170737</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,25 +8292,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>159.984578766736</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>282.756694288444</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837496</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886044</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431198</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8459,19 +8459,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>506.8283140129063</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,13 +8529,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>193.2214284919212</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
@@ -8544,10 +8544,10 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>373.2845452201562</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8766,13 +8766,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>575.5973938481089</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
@@ -8781,13 +8781,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>177.2623988786017</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9009,7 +9009,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
         <v>726.4998994499999</v>
@@ -9021,10 +9021,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q15" t="n">
-        <v>204.7702368236083</v>
+        <v>126.0381992661173</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9182,7 +9182,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9240,16 +9240,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L18" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
         <v>747.7741039759435</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>373.8515870339854</v>
+        <v>405.2562148204912</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>163.9964000092958</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>624.8237719316268</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,22 +9714,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
         <v>496.801919078302</v>
@@ -9957,19 +9957,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>546.091734374136</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10188,16 +10188,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>199.6102425680203</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>238.0573041899393</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10440,13 +10440,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
-        <v>377.2173282296772</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>496.3264449482919</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,16 +10662,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>191.9060307259249</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
@@ -10680,10 +10680,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10902,19 +10902,19 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>486.9652344155852</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P39" t="n">
         <v>496.801919078302</v>
@@ -11136,16 +11136,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>115.0989755892052</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11376,19 +11376,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>488.8476739954107</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>301.8549375253375</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>229.8245486567693</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>7.241258629971298</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>79.2074028249156</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465757</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>65.1728283467225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>289.313251107542</v>
+        <v>86.60498760765505</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,19 +23546,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.76661421924415</v>
+        <v>58.8053601419324</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -25868,7 +25868,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876474.6288342027</v>
+        <v>876474.6288342025</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876474.6288342027</v>
+        <v>876474.6288342025</v>
       </c>
     </row>
     <row r="7">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>991826.9795134619</v>
+        <v>991826.9795134618</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>270498.2671400352</v>
+        <v>270498.2671400351</v>
       </c>
       <c r="C2" t="n">
         <v>270498.2671400351</v>
@@ -26320,16 +26320,16 @@
         <v>270498.2671400352</v>
       </c>
       <c r="E2" t="n">
+        <v>239038.5351366008</v>
+      </c>
+      <c r="F2" t="n">
         <v>239038.5351366011</v>
       </c>
-      <c r="F2" t="n">
-        <v>239038.535136601</v>
-      </c>
       <c r="G2" t="n">
-        <v>270498.2671400353</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="H2" t="n">
-        <v>270498.2671400353</v>
+        <v>270498.2671400352</v>
       </c>
       <c r="I2" t="n">
         <v>270498.2671400352</v>
@@ -26338,10 +26338,10 @@
         <v>270498.2671400355</v>
       </c>
       <c r="K2" t="n">
-        <v>270498.2671400356</v>
+        <v>270498.2671400355</v>
       </c>
       <c r="L2" t="n">
-        <v>270498.2671400355</v>
+        <v>270498.2671400354</v>
       </c>
       <c r="M2" t="n">
         <v>270498.2671400352</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918561</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062173</v>
+        <v>22558.4295340134</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539672</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.8294596229</v>
+        <v>43252.52447081119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277126</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243103</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243102</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373742</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373748</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="P4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001382</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,10 +26482,10 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,19 +26497,19 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173853</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-145597.085516145</v>
+        <v>-142448.7349293708</v>
       </c>
       <c r="C6" t="n">
-        <v>36607.86277571105</v>
+        <v>31409.92210468437</v>
       </c>
       <c r="D6" t="n">
-        <v>31744.58048183599</v>
+        <v>24008.29125844431</v>
       </c>
       <c r="E6" t="n">
-        <v>-354.541561021455</v>
+        <v>-564.2731077112355</v>
       </c>
       <c r="F6" t="n">
-        <v>111768.019913023</v>
+        <v>111558.2883663335</v>
       </c>
       <c r="G6" t="n">
-        <v>43059.76027251401</v>
+        <v>43059.76027251389</v>
       </c>
       <c r="H6" t="n">
-        <v>90485.085809196</v>
+        <v>90485.08580919588</v>
       </c>
       <c r="I6" t="n">
         <v>90485.08580919594</v>
       </c>
       <c r="J6" t="n">
-        <v>-122556.8317880895</v>
+        <v>-116040.5466335162</v>
       </c>
       <c r="K6" t="n">
-        <v>84245.31740641332</v>
+        <v>84245.31740641326</v>
       </c>
       <c r="L6" t="n">
-        <v>29062.72847179203</v>
+        <v>25013.89126131979</v>
       </c>
       <c r="M6" t="n">
-        <v>48284.25634957291</v>
+        <v>47232.56133838467</v>
       </c>
       <c r="N6" t="n">
-        <v>90485.08580919591</v>
+        <v>90485.08580919594</v>
       </c>
       <c r="O6" t="n">
-        <v>62717.39176642465</v>
+        <v>62717.39176642476</v>
       </c>
       <c r="P6" t="n">
-        <v>90485.08580919595</v>
+        <v>90485.08580919585</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,7 +26713,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26802,34 +26802,34 @@
         <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443781</v>
       </c>
       <c r="K4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095209</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014443</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.709617553464</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.0703022192459</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551352</v>
+        <v>17.58004954287448</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773717</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.1268713042792</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346407</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485731</v>
+        <v>72.62154181506423</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27379,25 +27379,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>316.5080167079552</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,22 +27424,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>30.52769591041968</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27464,10 +27464,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>13.0968728824065</v>
+        <v>61.51507786325691</v>
       </c>
       <c r="F3" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>70.10046414310801</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27558,7 +27558,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>106.2086598763583</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>207.9445015013342</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27679,10 +27679,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>245.8422870274383</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27698,7 +27698,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>37.15599424044942</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27710,7 +27710,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,13 +27743,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>161.4998697153972</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>123.90972027504</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>21.74981753850911</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -27831,13 +27831,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
         <v>220.8809405715231</v>
@@ -27853,19 +27853,19 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>333.5658553605248</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>185.6595443569092</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>159.7006016496652</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>127.8877117086832</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28059,7 +28059,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -28068,13 +28068,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28746,10 +28746,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>35.71049010668817</v>
       </c>
       <c r="L19" t="n">
-        <v>35.71049010668818</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28980,13 +28980,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29217,16 +29217,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529603</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -29305,19 +29305,19 @@
         <v>93.99127447431648</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431648</v>
+        <v>30.27223765901181</v>
       </c>
       <c r="N26" t="n">
         <v>93.99127447431648</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431648</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901132</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431648</v>
@@ -29539,10 +29539,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>86.65052755599527</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>30.27223765901226</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
         <v>93.99127447431646</v>
-      </c>
-      <c r="R29" t="n">
-        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566762</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>43.49509683160034</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>106.8683420224737</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>18.7144686125431</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733418</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>130.3599693155844</v>
@@ -30168,22 +30168,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5.636002634529518</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30420,13 +30420,13 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>128.2979821082779</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30639,25 +30639,25 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668857</v>
       </c>
       <c r="K43" t="n">
-        <v>5.636002634529092</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -30730,13 +30730,13 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>-7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -30879,10 +30879,10 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.636002634529632</v>
       </c>
       <c r="L46" t="n">
-        <v>5.636002634528495</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30891,7 +30891,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -33895,7 +33895,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -34696,7 +34696,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
@@ -34705,19 +34705,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344378</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="N2" t="n">
-        <v>450.3222992743338</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O2" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>156.1960735084809</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344378</v>
+        <v>373.0011178946855</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>55.23572912476277</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>43.78952560586624</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>168.1656617761484</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>77.5401214334027</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>192.6963474315257</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344378</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542308</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35179,19 +35179,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>357.103262415179</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>110.7769711585879</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
@@ -35264,10 +35264,10 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>286.2011804008416</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>485.5370469911907</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
@@ -35501,13 +35501,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>86.27424572268772</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35574,19 +35574,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N13" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,7 +35729,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
         <v>634.1127774006881</v>
@@ -35741,10 +35741,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.7820836676943</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35823,7 +35823,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>146.1108817260908</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
         <v>362.6084404317796</v>
@@ -35902,7 +35902,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,16 +35960,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>662.4019911217769</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>286.7682222146707</v>
+        <v>318.1728500011766</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36042,10 +36042,10 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>118.3721477934981</v>
       </c>
       <c r="L19" t="n">
-        <v>201.4959849287082</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>539.4516590774601</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36291,7 +36291,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>292.6462316453567</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
         <v>409.7185542589873</v>
@@ -36513,16 +36513,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565496</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683763</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36601,19 +36601,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>645.507335125408</v>
+        <v>581.7882983101033</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700705</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
         <v>56.3782898969832</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>460.7196215199693</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36835,10 +36835,10 @@
         <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>584.9538525242062</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>551.5160606510915</v>
+        <v>581.7882983101038</v>
       </c>
       <c r="N29" t="n">
         <v>533.1427107449111</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853756</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>107.2231205187084</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>147.0691510340253</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917566</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>604.6397822682818</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.479168044982</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>395.199634338188</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273755</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37160,13 +37160,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
-        <v>284.5297693407883</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>409.2430801289772</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791177</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>195.4415774595199</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>272.6538368444937</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>297.8199541476687</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371497</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>139.8015047505013</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102233</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,16 +37382,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>109.4615733925916</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>113.7820836676939</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
@@ -37400,10 +37400,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023943</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37476,10 +37476,10 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P37" t="n">
-        <v>126.7230387724877</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317805</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37622,19 +37622,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>396.904887558667</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P39" t="n">
         <v>409.7185542589873</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
@@ -37707,7 +37707,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37716,13 +37716,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>121.0870361379582</v>
+        <v>156.7975262446462</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634529095</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>22.71185353989332</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634529496</v>
       </c>
       <c r="K43" t="n">
-        <v>88.29766032133907</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37953,7 +37953,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
@@ -38026,13 +38026,13 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449103</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q44" t="n">
         <v>186.7126870110591</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>398.7873271384925</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>216.4828246711708</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,10 +38175,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133961</v>
       </c>
       <c r="L46" t="n">
-        <v>171.4214974565485</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M46" t="n">
         <v>188.1733114527919</v>
@@ -38187,7 +38187,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
